--- a/Administratives/Haut_Onkozert_Klassen.xlsx
+++ b/Administratives/Haut_Onkozert_Klassen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\GTDS\Administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEABAB34-4155-4F2C-AE51-40A63D4D1AD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8157264-50C2-4606-9AD9-777913303FB9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8808" xr2:uid="{277516F7-ED3B-4A3E-888D-D3DD654353E9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="17">
   <si>
     <t>BEZEICHNUNG</t>
   </si>
@@ -68,12 +68,27 @@
   <si>
     <t>05</t>
   </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +96,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,26 +132,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -134,15 +172,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5282C63A-12A2-43AD-B733-E8477D1C117F}" name="Table2" displayName="Table2" ref="A2:F235" totalsRowShown="0">
-  <autoFilter ref="A2:F235" xr:uid="{5C3599B6-4A4E-4989-9F36-3232398C3C4A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5282C63A-12A2-43AD-B733-E8477D1C117F}" name="Table2" displayName="Table2" ref="A2:F241" totalsRowShown="0">
+  <autoFilter ref="A2:F241" xr:uid="{5C3599B6-4A4E-4989-9F36-3232398C3C4A}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AC99B361-9BA2-4491-B632-2A56BB89AC97}" name="CODE"/>
     <tableColumn id="2" xr3:uid="{3CC331EF-51DC-4759-BB61-F225E5D81E3C}" name="BEZEICHNUNG"/>
     <tableColumn id="3" xr3:uid="{EFB08F50-F380-48F4-AB36-E6A9BAEAD8A1}" name="CODE_GTDS"/>
     <tableColumn id="4" xr3:uid="{C6341AF3-08B4-4473-8CC1-A4A5BCD7946A}" name="Histologie"/>
-    <tableColumn id="5" xr3:uid="{BEF0F6D4-B4C7-41EE-9DB6-63494F57BF79}" name="Lokalisation" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{21876ABC-CB2E-47EC-A1B1-545EE91A6F91}" name="SQL" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{BEF0F6D4-B4C7-41EE-9DB6-63494F57BF79}" name="Lokalisation" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{21876ABC-CB2E-47EC-A1B1-545EE91A6F91}" name="SQL" dataDxfId="0">
       <calculatedColumnFormula>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -447,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B022B32-5988-49EC-9BC6-C4B4792FF902}">
-  <dimension ref="A2:F235"/>
+  <dimension ref="A2:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F218" sqref="F218:F235"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4662,23 +4700,20 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202">
-        <v>9591</v>
+        <v>4</v>
       </c>
       <c r="D202">
-        <v>95913</v>
-      </c>
-      <c r="E202" s="2">
-        <v>44</v>
-      </c>
-      <c r="F202" t="str">
-        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','95913','UKE');</v>
+        <v>88023</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F202" s="5" t="str">
+        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 160,'44%','88023','UKE');</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -4689,17 +4724,17 @@
         <v>5</v>
       </c>
       <c r="C203">
-        <v>9597</v>
+        <v>9591</v>
       </c>
       <c r="D203">
-        <v>95973</v>
+        <v>95913</v>
       </c>
       <c r="E203" s="2">
         <v>44</v>
       </c>
       <c r="F203" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','95973','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','95913','UKE');</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -4710,17 +4745,17 @@
         <v>5</v>
       </c>
       <c r="C204">
-        <v>9680</v>
+        <v>9597</v>
       </c>
       <c r="D204">
-        <v>96803</v>
+        <v>95973</v>
       </c>
       <c r="E204" s="2">
         <v>44</v>
       </c>
       <c r="F204" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','96803','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','95973','UKE');</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -4731,17 +4766,17 @@
         <v>5</v>
       </c>
       <c r="C205">
-        <v>969</v>
+        <v>9680</v>
       </c>
       <c r="D205">
-        <v>96903</v>
+        <v>96803</v>
       </c>
       <c r="E205" s="2">
         <v>44</v>
       </c>
       <c r="F205" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','96903','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','96803','UKE');</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -4755,14 +4790,14 @@
         <v>969</v>
       </c>
       <c r="D206">
-        <v>96913</v>
+        <v>96903</v>
       </c>
       <c r="E206" s="2">
         <v>44</v>
       </c>
       <c r="F206" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','96913','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','96903','UKE');</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -4776,14 +4811,14 @@
         <v>969</v>
       </c>
       <c r="D207">
-        <v>96953</v>
+        <v>96913</v>
       </c>
       <c r="E207" s="2">
         <v>44</v>
       </c>
       <c r="F207" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','96953','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','96913','UKE');</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -4797,14 +4832,14 @@
         <v>969</v>
       </c>
       <c r="D208">
-        <v>96983</v>
+        <v>96953</v>
       </c>
       <c r="E208" s="2">
         <v>44</v>
       </c>
       <c r="F208" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','96983','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','96953','UKE');</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -4818,14 +4853,14 @@
         <v>969</v>
       </c>
       <c r="D209">
-        <v>96993</v>
+        <v>96983</v>
       </c>
       <c r="E209" s="2">
         <v>44</v>
       </c>
       <c r="F209" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','96993','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','96983','UKE');</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -4836,17 +4871,17 @@
         <v>5</v>
       </c>
       <c r="C210">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D210">
-        <v>97003</v>
+        <v>96993</v>
       </c>
       <c r="E210" s="2">
         <v>44</v>
       </c>
       <c r="F210" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','97003','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','96993','UKE');</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -4860,14 +4895,14 @@
         <v>970</v>
       </c>
       <c r="D211">
-        <v>97013</v>
+        <v>97003</v>
       </c>
       <c r="E211" s="2">
         <v>44</v>
       </c>
       <c r="F211" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','97013','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','97003','UKE');</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -4881,14 +4916,14 @@
         <v>970</v>
       </c>
       <c r="D212">
-        <v>97023</v>
+        <v>97013</v>
       </c>
       <c r="E212" s="2">
         <v>44</v>
       </c>
       <c r="F212" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','97023','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','97013','UKE');</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -4902,14 +4937,14 @@
         <v>970</v>
       </c>
       <c r="D213">
-        <v>97053</v>
+        <v>97023</v>
       </c>
       <c r="E213" s="2">
         <v>44</v>
       </c>
       <c r="F213" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','97053','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','97023','UKE');</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -4923,14 +4958,14 @@
         <v>970</v>
       </c>
       <c r="D214">
-        <v>97083</v>
+        <v>97053</v>
       </c>
       <c r="E214" s="2">
         <v>44</v>
       </c>
       <c r="F214" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','97083','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','97053','UKE');</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -4944,14 +4979,14 @@
         <v>970</v>
       </c>
       <c r="D215">
-        <v>97093</v>
+        <v>97083</v>
       </c>
       <c r="E215" s="2">
         <v>44</v>
       </c>
       <c r="F215" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','97093','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','97083','UKE');</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -4962,17 +4997,17 @@
         <v>5</v>
       </c>
       <c r="C216">
-        <v>9718</v>
+        <v>970</v>
       </c>
       <c r="D216">
-        <v>97183</v>
+        <v>97093</v>
       </c>
       <c r="E216" s="2">
         <v>44</v>
       </c>
       <c r="F216" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','97183','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','97093','UKE');</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -4983,89 +5018,92 @@
         <v>5</v>
       </c>
       <c r="C217">
-        <v>9826</v>
+        <v>9718</v>
       </c>
       <c r="D217">
-        <v>98263</v>
+        <v>97183</v>
       </c>
       <c r="E217" s="2">
         <v>44</v>
       </c>
       <c r="F217" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','98263','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','97183','UKE');</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="B218" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C218">
+        <v>9826</v>
       </c>
       <c r="D218">
-        <v>87203</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F218" s="1" t="str">
-        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'02%','87203','UKE');</v>
+        <v>98263</v>
+      </c>
+      <c r="E218" s="2">
+        <v>44</v>
+      </c>
+      <c r="F218" t="str">
+        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'44%','98263','UKE');</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
-      </c>
-      <c r="D219">
-        <v>87203</v>
+        <v>5</v>
+      </c>
+      <c r="D219" s="4">
+        <v>96983</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F219" s="1" t="str">
-        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'05%','87203','UKE');</v>
+        <v>13</v>
+      </c>
+      <c r="F219" s="5" t="str">
+        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'49%','96983','UKE');</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="B220" t="s">
-        <v>3</v>
-      </c>
-      <c r="D220">
-        <v>87203</v>
-      </c>
-      <c r="E220" s="2">
-        <v>15</v>
-      </c>
-      <c r="F220" s="1" t="str">
-        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'15%','87203','UKE');</v>
+        <v>5</v>
+      </c>
+      <c r="D220" s="3">
+        <v>97003</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F220" s="5" t="str">
+        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'84%','97003','UKE');</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="B221" t="s">
-        <v>3</v>
-      </c>
-      <c r="D221">
-        <v>87203</v>
-      </c>
-      <c r="E221" s="2">
-        <v>20</v>
-      </c>
-      <c r="F221" s="1" t="str">
-        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'20%','87203','UKE');</v>
+        <v>5</v>
+      </c>
+      <c r="D221" s="3">
+        <v>97013</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F221" s="5" t="str">
+        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 170,'42%','97013','UKE');</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -5078,12 +5116,12 @@
       <c r="D222">
         <v>87203</v>
       </c>
-      <c r="E222" s="2">
-        <v>21</v>
+      <c r="E222" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F222" s="1" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'21%','87203','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'02%','87203','UKE');</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -5096,12 +5134,12 @@
       <c r="D223">
         <v>87203</v>
       </c>
-      <c r="E223" s="2">
-        <v>30</v>
+      <c r="E223" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F223" s="1" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'30%','87203','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'05%','87203','UKE');</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -5115,11 +5153,11 @@
         <v>87203</v>
       </c>
       <c r="E224" s="2">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F224" s="1" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'31%','87203','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'15%','87203','UKE');</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -5133,11 +5171,11 @@
         <v>87203</v>
       </c>
       <c r="E225" s="2">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F225" s="1" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'39%','87203','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'20%','87203','UKE');</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -5151,11 +5189,11 @@
         <v>87203</v>
       </c>
       <c r="E226" s="2">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F226" s="1" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'40%','87203','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'21%','87203','UKE');</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -5169,11 +5207,11 @@
         <v>87203</v>
       </c>
       <c r="E227" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F227" s="1" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'50%','87203','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'30%','87203','UKE');</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -5187,11 +5225,11 @@
         <v>87203</v>
       </c>
       <c r="E228" s="2">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F228" s="1" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'51%','87203','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'31%','87203','UKE');</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -5205,11 +5243,11 @@
         <v>87203</v>
       </c>
       <c r="E229" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F229" s="1" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'52%','87203','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'39%','87203','UKE');</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -5223,11 +5261,11 @@
         <v>87203</v>
       </c>
       <c r="E230" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F230" s="1" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'53%','87203','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'40%','87203','UKE');</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -5241,11 +5279,11 @@
         <v>87203</v>
       </c>
       <c r="E231" s="2">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F231" s="1" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'68%','87203','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'50%','87203','UKE');</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -5259,11 +5297,11 @@
         <v>87203</v>
       </c>
       <c r="E232" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F232" s="1" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'69%','87203','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'51%','87203','UKE');</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -5277,11 +5315,11 @@
         <v>87203</v>
       </c>
       <c r="E233" s="2">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F233" s="1" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'76%','87203','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'52%','87203','UKE');</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -5295,11 +5333,11 @@
         <v>87203</v>
       </c>
       <c r="E234" s="2">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F234" s="1" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
-        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'77%','87203','UKE');</v>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'53%','87203','UKE');</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -5313,16 +5351,124 @@
         <v>87203</v>
       </c>
       <c r="E235" s="2">
+        <v>68</v>
+      </c>
+      <c r="F235" s="1" t="str">
+        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'68%','87203','UKE');</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>140</v>
+      </c>
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+      <c r="D236">
+        <v>87203</v>
+      </c>
+      <c r="E236" s="2">
+        <v>69</v>
+      </c>
+      <c r="F236" s="1" t="str">
+        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'69%','87203','UKE');</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>140</v>
+      </c>
+      <c r="B237" t="s">
+        <v>3</v>
+      </c>
+      <c r="D237">
+        <v>87203</v>
+      </c>
+      <c r="E237" s="2">
+        <v>76</v>
+      </c>
+      <c r="F237" s="1" t="str">
+        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'76%','87203','UKE');</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>140</v>
+      </c>
+      <c r="B238" t="s">
+        <v>3</v>
+      </c>
+      <c r="D238">
+        <v>87203</v>
+      </c>
+      <c r="E238" s="2">
+        <v>77</v>
+      </c>
+      <c r="F238" s="1" t="str">
+        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'77%','87203','UKE');</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>140</v>
+      </c>
+      <c r="B239" t="s">
+        <v>3</v>
+      </c>
+      <c r="D239">
+        <v>87203</v>
+      </c>
+      <c r="E239" s="2">
         <v>80</v>
       </c>
-      <c r="F235" s="1" t="str">
+      <c r="F239" s="1" t="str">
         <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
         <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'80%','87203','UKE');</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>140</v>
+      </c>
+      <c r="B240" t="s">
+        <v>3</v>
+      </c>
+      <c r="D240" s="4">
+        <v>87206</v>
+      </c>
+      <c r="E240" s="2">
+        <v>80</v>
+      </c>
+      <c r="F240" s="5" t="str">
+        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'80%','87206','UKE');</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>140</v>
+      </c>
+      <c r="B241" t="s">
+        <v>3</v>
+      </c>
+      <c r="D241">
+        <v>87306</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F241" s="5" t="str">
+        <f>"insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, "&amp; Table2[[#This Row],[CODE]]  &amp; ",'" &amp;Table2[[#This Row],[Lokalisation]]&amp; "%','" &amp; Table2[[#This Row],[Histologie]] &amp; "','UKE');"</f>
+        <v>insert into AW_KLASSENBEDINGUNG (KLASSIERUNG_ID,CODE,LIKE_KRITERIUM,A_VON,KLASSIERUNG_QUELLE) values (8, 140,'80%','87306','UKE');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
